--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H2">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I2">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J2">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.431926</v>
+        <v>0.9721959999999999</v>
       </c>
       <c r="N2">
-        <v>7.295778</v>
+        <v>2.916588</v>
       </c>
       <c r="O2">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="P2">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="Q2">
-        <v>1.379922640278</v>
+        <v>0.4000836070306666</v>
       </c>
       <c r="R2">
-        <v>12.419303762502</v>
+        <v>3.600752463275999</v>
       </c>
       <c r="S2">
-        <v>0.0640642886241912</v>
+        <v>0.157826837439454</v>
       </c>
       <c r="T2">
-        <v>0.06406428862419118</v>
+        <v>0.157826837439454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H3">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I3">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J3">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.6609689999999999</v>
       </c>
       <c r="O3">
-        <v>0.07380317678956531</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="P3">
-        <v>0.07380317678956533</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="Q3">
-        <v>0.125015603219</v>
+        <v>0.09066856945699997</v>
       </c>
       <c r="R3">
-        <v>1.125140428971</v>
+        <v>0.8160171251129997</v>
       </c>
       <c r="S3">
-        <v>0.005803974406518814</v>
+        <v>0.03576735792491722</v>
       </c>
       <c r="T3">
-        <v>0.005803974406518814</v>
+        <v>0.03576735792491722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H4">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I4">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J4">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.333029</v>
+        <v>0.1909913333333333</v>
       </c>
       <c r="N4">
-        <v>0.9990869999999999</v>
+        <v>0.572974</v>
       </c>
       <c r="O4">
-        <v>0.1115571146137813</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="P4">
-        <v>0.1115571146137814</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="Q4">
-        <v>0.1889672041703333</v>
+        <v>0.07859783577755554</v>
       </c>
       <c r="R4">
-        <v>1.700704837533</v>
+        <v>0.7073805219979998</v>
       </c>
       <c r="S4">
-        <v>0.008772991438154683</v>
+        <v>0.03100563890238652</v>
       </c>
       <c r="T4">
-        <v>0.008772991438154682</v>
+        <v>0.03100563890238652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.168329</v>
       </c>
       <c r="I5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431926</v>
+        <v>0.9721959999999999</v>
       </c>
       <c r="N5">
-        <v>7.295778</v>
+        <v>2.916588</v>
       </c>
       <c r="O5">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="P5">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="Q5">
-        <v>1.757738557218</v>
+        <v>0.7026802601613333</v>
       </c>
       <c r="R5">
-        <v>15.819647014962</v>
+        <v>6.324122341452</v>
       </c>
       <c r="S5">
-        <v>0.08160477041872233</v>
+        <v>0.2771965690258719</v>
       </c>
       <c r="T5">
-        <v>0.08160477041872233</v>
+        <v>0.2771965690258719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.168329</v>
       </c>
       <c r="I6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>0.6609689999999999</v>
       </c>
       <c r="O6">
-        <v>0.07380317678956531</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="P6">
-        <v>0.07380317678956533</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="Q6">
         <v>0.159244250089</v>
@@ -818,10 +818,10 @@
         <v>1.433198250801</v>
       </c>
       <c r="S6">
-        <v>0.007393073569246826</v>
+        <v>0.06281941056894615</v>
       </c>
       <c r="T6">
-        <v>0.007393073569246828</v>
+        <v>0.06281941056894615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.168329</v>
       </c>
       <c r="I7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.333029</v>
+        <v>0.1909913333333333</v>
       </c>
       <c r="N7">
-        <v>0.9990869999999999</v>
+        <v>0.572974</v>
       </c>
       <c r="O7">
-        <v>0.1115571146137813</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="P7">
-        <v>0.1115571146137814</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="Q7">
-        <v>0.2407054795136666</v>
+        <v>0.1380440156051111</v>
       </c>
       <c r="R7">
-        <v>2.166349315623</v>
+        <v>1.242396140446</v>
       </c>
       <c r="S7">
-        <v>0.01117499261399264</v>
+        <v>0.05445624371389785</v>
       </c>
       <c r="T7">
-        <v>0.01117499261399264</v>
+        <v>0.05445624371389785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H8">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I8">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J8">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.431926</v>
+        <v>0.9721959999999999</v>
       </c>
       <c r="N8">
-        <v>7.295778</v>
+        <v>2.916588</v>
       </c>
       <c r="O8">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="P8">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="Q8">
-        <v>14.40939663618</v>
+        <v>0.6785535960946667</v>
       </c>
       <c r="R8">
-        <v>129.68456972562</v>
+        <v>6.106982364852001</v>
       </c>
       <c r="S8">
-        <v>0.6689706495537399</v>
+        <v>0.2676789706522044</v>
       </c>
       <c r="T8">
-        <v>0.6689706495537397</v>
+        <v>0.2676789706522044</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H9">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I9">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J9">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>0.6609689999999999</v>
       </c>
       <c r="O9">
-        <v>0.07380317678956531</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="P9">
-        <v>0.07380317678956533</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="Q9">
-        <v>1.30543507289</v>
+        <v>0.153776567639</v>
       </c>
       <c r="R9">
-        <v>11.74891565601</v>
+        <v>1.383989108751</v>
       </c>
       <c r="S9">
-        <v>0.06060612881379968</v>
+        <v>0.06066249382943936</v>
       </c>
       <c r="T9">
-        <v>0.06060612881379968</v>
+        <v>0.06066249382943936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H10">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I10">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J10">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.333029</v>
+        <v>0.1909913333333333</v>
       </c>
       <c r="N10">
-        <v>0.9990869999999999</v>
+        <v>0.572974</v>
       </c>
       <c r="O10">
-        <v>0.1115571146137813</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="P10">
-        <v>0.1115571146137814</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="Q10">
-        <v>1.973229017803333</v>
+        <v>0.1333042473495556</v>
       </c>
       <c r="R10">
-        <v>17.75906116023</v>
+        <v>1.199738226146</v>
       </c>
       <c r="S10">
-        <v>0.09160913056163403</v>
+        <v>0.05258647794288263</v>
       </c>
       <c r="T10">
-        <v>0.09160913056163401</v>
+        <v>0.05258647794288263</v>
       </c>
     </row>
   </sheetData>
